--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7438956666666666</v>
+        <v>1.590955666666667</v>
       </c>
       <c r="H2">
-        <v>2.231687</v>
+        <v>4.772867</v>
       </c>
       <c r="I2">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366805</v>
       </c>
       <c r="J2">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N2">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O2">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P2">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q2">
-        <v>83.84309173679031</v>
+        <v>108.4736944672077</v>
       </c>
       <c r="R2">
-        <v>754.587825631113</v>
+        <v>976.263250204869</v>
       </c>
       <c r="S2">
-        <v>0.06252828322337274</v>
+        <v>0.05872406620661819</v>
       </c>
       <c r="T2">
-        <v>0.06252828322337275</v>
+        <v>0.05872406620661818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7438956666666666</v>
+        <v>1.590955666666667</v>
       </c>
       <c r="H3">
-        <v>2.231687</v>
+        <v>4.772867</v>
       </c>
       <c r="I3">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366805</v>
       </c>
       <c r="J3">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P3">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q3">
-        <v>141.0265651315133</v>
+        <v>301.6108615767133</v>
       </c>
       <c r="R3">
-        <v>1269.23908618362</v>
+        <v>2714.49775419042</v>
       </c>
       <c r="S3">
-        <v>0.1051744255119505</v>
+        <v>0.163282132971146</v>
       </c>
       <c r="T3">
-        <v>0.1051744255119505</v>
+        <v>0.163282132971146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7438956666666666</v>
+        <v>1.590955666666667</v>
       </c>
       <c r="H4">
-        <v>2.231687</v>
+        <v>4.772867</v>
       </c>
       <c r="I4">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366805</v>
       </c>
       <c r="J4">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N4">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O4">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P4">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q4">
-        <v>88.01943185805045</v>
+        <v>299.1203567724154</v>
       </c>
       <c r="R4">
-        <v>792.1748867224541</v>
+        <v>2692.083210951739</v>
       </c>
       <c r="S4">
-        <v>0.06564290331347017</v>
+        <v>0.1619338561402162</v>
       </c>
       <c r="T4">
-        <v>0.06564290331347018</v>
+        <v>0.1619338561402162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7438956666666666</v>
+        <v>1.590955666666667</v>
       </c>
       <c r="H5">
-        <v>2.231687</v>
+        <v>4.772867</v>
       </c>
       <c r="I5">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366805</v>
       </c>
       <c r="J5">
-        <v>0.2947327619223709</v>
+        <v>0.4719498906366804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N5">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O5">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P5">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q5">
-        <v>82.31296579699745</v>
+        <v>162.5696686751915</v>
       </c>
       <c r="R5">
-        <v>740.816692172977</v>
+        <v>1463.127018076724</v>
       </c>
       <c r="S5">
-        <v>0.06138714987357743</v>
+        <v>0.08800983531870005</v>
       </c>
       <c r="T5">
-        <v>0.06138714987357744</v>
+        <v>0.08800983531870005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.340212999999999</v>
       </c>
       <c r="I6">
-        <v>0.705267238077629</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="J6">
-        <v>0.7052672380776291</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N6">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O6">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P6">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q6">
-        <v>200.6284790174429</v>
+        <v>121.367855704299</v>
       </c>
       <c r="R6">
-        <v>1805.656311156987</v>
+        <v>1092.310701338691</v>
       </c>
       <c r="S6">
-        <v>0.1496241860696133</v>
+        <v>0.06570453812550048</v>
       </c>
       <c r="T6">
-        <v>0.1496241860696133</v>
+        <v>0.06570453812550048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.340212999999999</v>
       </c>
       <c r="I7">
-        <v>0.705267238077629</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="J7">
-        <v>0.7052672380776291</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O7">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P7">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q7">
         <v>337.4630476678199</v>
@@ -883,10 +883,10 @@
         <v>3037.167429010379</v>
       </c>
       <c r="S7">
-        <v>0.2516723153320559</v>
+        <v>0.1826913193181881</v>
       </c>
       <c r="T7">
-        <v>0.2516723153320559</v>
+        <v>0.1826913193181881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.340212999999999</v>
       </c>
       <c r="I8">
-        <v>0.705267238077629</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="J8">
-        <v>0.7052672380776291</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N8">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O8">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P8">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q8">
-        <v>210.622060468594</v>
+        <v>334.676499010069</v>
       </c>
       <c r="R8">
-        <v>1895.598544217346</v>
+        <v>3012.088491090621</v>
       </c>
       <c r="S8">
-        <v>0.1570771732919251</v>
+        <v>0.1811827741481404</v>
       </c>
       <c r="T8">
-        <v>0.1570771732919251</v>
+        <v>0.1811827741481404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.340212999999999</v>
       </c>
       <c r="I9">
-        <v>0.705267238077629</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="J9">
-        <v>0.7052672380776291</v>
+        <v>0.5280501093633195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N9">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O9">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P9">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q9">
-        <v>196.967034363547</v>
+        <v>181.894165093004</v>
       </c>
       <c r="R9">
-        <v>1772.703309271923</v>
+        <v>1637.047485837036</v>
       </c>
       <c r="S9">
-        <v>0.1468935633840348</v>
+        <v>0.0984714777714906</v>
       </c>
       <c r="T9">
-        <v>0.1468935633840348</v>
+        <v>0.09847147777149061</v>
       </c>
     </row>
   </sheetData>
